--- a/Test Data/selenium.xlsx
+++ b/Test Data/selenium.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\154212\PycharmProjects\caption_1_project-master_12345\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arrowelectronics-my.sharepoint.com/personal/dhaval_khatri_einfochips_com/Documents/Desktop/linkedin/Hybrid_Framework_Master_Project_1/Hybrid_Framework_Master_Project_1/Test Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D742493-8D8E-4DE9-829E-164B6AC040B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
